--- a/Baseline Levels.xlsx
+++ b/Baseline Levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\CPS-Farm-To-Facility-Cilantro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0EFEA9A-12B9-4BFF-B8A1-9EDAECC7286D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA58D3-ED42-4332-B8C1-749F49EE96C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{41526492-D638-4EE3-9A29-90DFE2120882}"/>
   </bookViews>
@@ -852,14 +852,14 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D5:D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1081,8 +1081,8 @@
         <v>28078092</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.98733852272727274</v>
+        <f>1-(C17/$C$3)</f>
+        <v>0.57790000000000008</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
         <v>27838620</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f>1-(C25/$C$3)</f>
         <v>0.58150000000000002</v>
       </c>
     </row>
